--- a/doc/数据表/决战江湖伤害公式.xlsx
+++ b/doc/数据表/决战江湖伤害公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="28485" windowHeight="12780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1800,17 +1800,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.000"/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1850,7 +1850,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1864,15 +1909,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,6 +1922,43 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1901,85 +1977,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2002,7 +2002,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2014,7 +2044,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,25 +2128,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,133 +2182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,33 +2193,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2238,12 +2211,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2264,17 +2250,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2299,10 +2299,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2311,137 +2311,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2455,14 +2455,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2474,25 +2474,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -3959,7 +3956,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -3971,31 +3968,31 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
@@ -4004,7 +4001,7 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>18</v>
       </c>
       <c r="U1" t="s">
@@ -4033,7 +4030,7 @@
         <f>W2*M2</f>
         <v>3.6</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <f>F2*G2/3/((1+H2/10)^2)</f>
         <v>0.0275482093663912</v>
       </c>
@@ -4046,33 +4043,33 @@
       <c r="H2">
         <v>100</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <f>(150+J2)/150</f>
         <v>1.00666666666667</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="20">
         <v>10</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <f>1.2*N2</f>
         <v>1.2</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="20">
         <v>1</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="20">
         <f>(1+R2)*(S2+0.6)/2</f>
         <v>0.6</v>
       </c>
@@ -4082,7 +4079,7 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="20">
         <v>1</v>
       </c>
       <c r="U2">
@@ -4094,67 +4091,67 @@
       <c r="W2">
         <v>3</v>
       </c>
-      <c r="X2" s="23"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" spans="5:20">
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
       <c r="F3">
         <v>1.7</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="5:20">
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4">
         <v>2.6</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="T4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="5:20">
-      <c r="E5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5">
         <v>4.2</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="T5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6" spans="5:20">
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
       <c r="F6">
         <v>7</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="T6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="5:20">
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
       <c r="F7">
         <v>12</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
@@ -4172,7 +4169,7 @@
         <f>W8*M8</f>
         <v>48000000</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <f>F8*G8/3/((1+H8/10)^2)</f>
         <v>55096.4187327824</v>
       </c>
@@ -4185,34 +4182,34 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <f>(150+J8)/150</f>
         <v>67.6666666666667</v>
       </c>
       <c r="J8">
         <v>10000</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <f>10*(1+L8/5)</f>
         <v>20</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <f>1.2*N8</f>
         <v>12000</v>
       </c>
       <c r="N8">
         <v>10000</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>50</v>
       </c>
       <c r="P8">
         <v>50</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="20">
         <f>(1+R8)*(S8+0.6)/2*5</f>
         <v>140</v>
       </c>
@@ -4222,7 +4219,7 @@
       <c r="S8">
         <v>5</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="20">
         <v>1.5</v>
       </c>
       <c r="U8">
@@ -4239,31 +4236,31 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f>E8/E2</f>
         <v>2000000</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <f>I8/I2</f>
         <v>67.2185430463576</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <f>K8/K2</f>
         <v>2</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <f>M8/M2</f>
         <v>10000</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="21">
         <f>O8/O2</f>
         <v>50</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="21">
         <f>Q8/Q2</f>
         <v>233.333333333333</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="21">
         <f>T8/T2</f>
         <v>1.5</v>
       </c>
@@ -4281,7 +4278,7 @@
         <f>W10*M10</f>
         <v>19.2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <f>F10*G10/3/((1+H10/10)^2)</f>
         <v>62.2222222222222</v>
       </c>
@@ -4294,33 +4291,33 @@
       <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <f>(150+J10)/150</f>
         <v>1.54</v>
       </c>
       <c r="J10">
         <v>81</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>16</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <f>1.2*N10</f>
         <v>1.2</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <v>1</v>
       </c>
       <c r="P10">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="23">
         <f>(1+R10)*(S10+0.6)/2</f>
         <v>0.6</v>
       </c>
@@ -4356,7 +4353,7 @@
         <f>W11*M11</f>
         <v>13.32</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <f>F11*G11/3/((1+H11/10)^2)</f>
         <v>20.3703703703704</v>
       </c>
@@ -4369,33 +4366,33 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <f>(150+J11)/150</f>
         <v>1.54</v>
       </c>
       <c r="J11">
         <v>81</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>13</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <f>1.2*N11</f>
         <v>1.2</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>1</v>
       </c>
       <c r="P11">
         <v>1.5</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="23">
         <f>(1+R11)*(S11+0.6)/2</f>
         <v>0.6</v>
       </c>
@@ -4877,13 +4874,13 @@
         <f>F2*26</f>
         <v>3848</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <f ca="1">T2*Q2*(10+10*RAND())*(U2*K2*M2/3/((1+B2/10)^2)*(150+N2)/150*(1+R2)*(S2+0.6)/2+V2*P2*1.2)</f>
-        <v>803.329288881326</v>
-      </c>
-      <c r="I2" s="20">
+        <v>558.653701168047</v>
+      </c>
+      <c r="I2" s="19">
         <f ca="1">H2/G2</f>
-        <v>0.208765407713442</v>
+        <v>0.145180275771322</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4953,13 +4950,13 @@
         <f t="shared" ref="G3:G29" si="1">F3*26</f>
         <v>18434</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f ca="1" t="shared" ref="H3:H29" si="2">T3*Q3*(10+10*RAND())*(U3*K3*M3/3/((1+B3/10)^2)*(150+N3)/150*(1+R3)*(S3+0.6)/2+V3*P3*1.2)</f>
-        <v>6571.88496255824</v>
-      </c>
-      <c r="I3" s="20">
+        <v>7521.34582089905</v>
+      </c>
+      <c r="I3" s="19">
         <f ca="1" t="shared" ref="I3:I29" si="3">H3/G3</f>
-        <v>0.356508894572976</v>
+        <v>0.408014854122765</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5028,13 +5025,13 @@
         <f t="shared" si="1"/>
         <v>49400</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>18410.1906474152</v>
-      </c>
-      <c r="I4" s="20">
+        <v>13506.2935661785</v>
+      </c>
+      <c r="I4" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>0.372675924036745</v>
+        <v>0.273406752351792</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -5103,13 +5100,13 @@
         <f t="shared" si="1"/>
         <v>49400</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>18969.8413162319</v>
-      </c>
-      <c r="I5" s="20">
+        <v>12370.0280289715</v>
+      </c>
+      <c r="I5" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>0.384004884943965</v>
+        <v>0.250405425687683</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -5178,13 +5175,13 @@
         <f t="shared" si="1"/>
         <v>67600</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>83315.7628508545</v>
-      </c>
-      <c r="I6" s="20">
+        <v>124587.997536943</v>
+      </c>
+      <c r="I6" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>1.23248169897714</v>
+        <v>1.84301771504354</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -5253,13 +5250,13 @@
         <f t="shared" si="1"/>
         <v>98800</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>123202.015552482</v>
-      </c>
-      <c r="I7" s="20">
+        <v>168909.46418184</v>
+      </c>
+      <c r="I7" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>1.2469839630818</v>
+        <v>1.70960996135465</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -5325,13 +5322,13 @@
         <f t="shared" si="1"/>
         <v>117000</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>135769.386423435</v>
-      </c>
-      <c r="I8" s="20">
+        <v>168166.23312193</v>
+      </c>
+      <c r="I8" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>1.1604221061832</v>
+        <v>1.43731823181136</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -5397,13 +5394,13 @@
         <f t="shared" si="1"/>
         <v>153400</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>183906.819007152</v>
-      </c>
-      <c r="I9" s="20">
+        <v>237038.909012087</v>
+      </c>
+      <c r="I9" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>1.1988710495903</v>
+        <v>1.54523408743212</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -5472,13 +5469,13 @@
         <f t="shared" si="1"/>
         <v>187200</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>623028.270089465</v>
-      </c>
-      <c r="I10" s="20">
+        <v>795054.392804739</v>
+      </c>
+      <c r="I10" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>3.32814246842663</v>
+        <v>4.24708543164925</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -5547,13 +5544,13 @@
         <f t="shared" si="1"/>
         <v>275600</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>1065509.31154523</v>
-      </c>
-      <c r="I11" s="20">
+        <v>617172.257183223</v>
+      </c>
+      <c r="I11" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>3.86614409123812</v>
+        <v>2.23937684028746</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -5619,13 +5616,13 @@
         <f t="shared" si="1"/>
         <v>351000</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>937555.373331578</v>
-      </c>
-      <c r="I12" s="20">
+        <v>642979.995659756</v>
+      </c>
+      <c r="I12" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>2.6710979297196</v>
+        <v>1.83185183948648</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -5691,13 +5688,13 @@
         <f t="shared" si="1"/>
         <v>473200</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>8566382.09627693</v>
-      </c>
-      <c r="I13" s="20">
+        <v>9909110.97437739</v>
+      </c>
+      <c r="I13" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>18.1030898061643</v>
+        <v>20.9406402670697</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -5766,13 +5763,13 @@
         <f t="shared" si="1"/>
         <v>621400</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>15365433.223275</v>
-      </c>
-      <c r="I14" s="20">
+        <v>17045587.1568583</v>
+      </c>
+      <c r="I14" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>24.7271213763679</v>
+        <v>27.4309416750214</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -5838,13 +5835,13 @@
         <f t="shared" si="1"/>
         <v>787800</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>114338814.605645</v>
-      </c>
-      <c r="I15" s="20">
+        <v>112805372.366122</v>
+      </c>
+      <c r="I15" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>145.136855300387</v>
+        <v>143.190368578474</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -5913,13 +5910,13 @@
         <f t="shared" si="1"/>
         <v>1034800</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>133505834.344063</v>
-      </c>
-      <c r="I16" s="20">
+        <v>164372394.116419</v>
+      </c>
+      <c r="I16" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>129.01607493628</v>
+        <v>158.844601967935</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -5985,13 +5982,13 @@
         <f t="shared" si="1"/>
         <v>1315600</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>1738697767.39444</v>
-      </c>
-      <c r="I17" s="20">
+        <v>1258480826.855</v>
+      </c>
+      <c r="I17" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>1321.60061370815</v>
+        <v>956.5831763872</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -6060,13 +6057,13 @@
         <f t="shared" si="1"/>
         <v>1612000</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>1508446699.05119</v>
-      </c>
-      <c r="I18" s="20">
+        <v>1343754828.09307</v>
+      </c>
+      <c r="I18" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>935.760979560289</v>
+        <v>833.594806509351</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -6132,13 +6129,13 @@
         <f t="shared" si="1"/>
         <v>1929200</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>2107057397.70045</v>
-      </c>
-      <c r="I19" s="20">
+        <v>2275096467.23467</v>
+      </c>
+      <c r="I19" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>1092.19230650034</v>
+        <v>1179.29528676896</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -6204,13 +6201,13 @@
         <f t="shared" si="1"/>
         <v>5291000</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>3883611436.27441</v>
-      </c>
-      <c r="I20" s="20">
+        <v>3959770785.70838</v>
+      </c>
+      <c r="I20" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>734.003295459159</v>
+        <v>748.39742689631</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -6276,13 +6273,13 @@
         <f t="shared" si="1"/>
         <v>9534200</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>4005116533.02207</v>
-      </c>
-      <c r="I21" s="20">
+        <v>5106694915.31923</v>
+      </c>
+      <c r="I21" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>420.078929854845</v>
+        <v>535.618606209145</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -6348,13 +6345,13 @@
         <f t="shared" si="1"/>
         <v>11993800</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>2958933267.13722</v>
-      </c>
-      <c r="I22" s="20">
+        <v>2630462107.98544</v>
+      </c>
+      <c r="I22" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>246.705236633696</v>
+        <v>219.318490218733</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -6420,13 +6417,13 @@
         <f t="shared" si="1"/>
         <v>18278000</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>16693850134.7545</v>
-      </c>
-      <c r="I23" s="20">
+        <v>25259556501.8562</v>
+      </c>
+      <c r="I23" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>913.330240439571</v>
+        <v>1381.96501268499</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -6495,13 +6492,13 @@
         <f t="shared" si="1"/>
         <v>23108800</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>206457662890.482</v>
-      </c>
-      <c r="I24" s="20">
+        <v>121419796750.103</v>
+      </c>
+      <c r="I24" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>8934.15767545188</v>
+        <v>5254.26663219651</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -6570,13 +6567,13 @@
         <f t="shared" si="1"/>
         <v>27164800</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>137287840182.908</v>
-      </c>
-      <c r="I25" s="20">
+        <v>190063552684.999</v>
+      </c>
+      <c r="I25" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>5053.88739040626</v>
+        <v>6996.68514713892</v>
       </c>
       <c r="J25">
         <v>6</v>
@@ -6642,13 +6639,13 @@
         <f t="shared" si="1"/>
         <v>52145600</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>105423668618.207</v>
-      </c>
-      <c r="I26" s="20">
+        <v>142306412472.841</v>
+      </c>
+      <c r="I26" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>2021.71743384306</v>
+        <v>2729.02052086544</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -6714,13 +6711,13 @@
         <f t="shared" si="1"/>
         <v>71944600</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>157375100915.358</v>
-      </c>
-      <c r="I27" s="20">
+        <v>153019732859.229</v>
+      </c>
+      <c r="I27" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>2187.44841051807</v>
+        <v>2126.91060703971</v>
       </c>
       <c r="J27">
         <v>6</v>
@@ -6786,13 +6783,13 @@
         <f t="shared" si="1"/>
         <v>135610800</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>162263779950.99</v>
-      </c>
-      <c r="I28" s="20">
+        <v>137024798115.43</v>
+      </c>
+      <c r="I28" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>1196.5402456957</v>
+        <v>1010.42688425575</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -6858,13 +6855,13 @@
         <f t="shared" si="1"/>
         <v>250172000</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <f ca="1" t="shared" si="2"/>
-        <v>131635639764.56</v>
-      </c>
-      <c r="I29" s="20">
+        <v>107524514253.264</v>
+      </c>
+      <c r="I29" s="19">
         <f ca="1" t="shared" si="3"/>
-        <v>526.180546842011</v>
+        <v>429.802352994197</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -6919,7 +6916,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -7048,15 +7045,15 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="17">
         <f t="shared" ref="K2:K8" si="1">A2*F2*G2*I2*J2</f>
         <v>1.05525</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <f t="shared" ref="L2:L8" si="2">B2*H2*I2*J2</f>
         <v>0.03</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <f>K2+L2</f>
         <v>1.08525</v>
       </c>
@@ -7066,13 +7063,13 @@
       <c r="O2" s="1">
         <v>5</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="18">
         <f t="shared" ref="P2:P8" si="3">1/(1+O2*0.1)</f>
         <v>0.666666666666667</v>
       </c>
       <c r="Q2" s="1">
         <f ca="1">0.95+0.1*RAND()</f>
-        <v>0.958711260057215</v>
+        <v>1.03386939818622</v>
       </c>
       <c r="R2" s="1">
         <v>1.5</v>
@@ -7083,9 +7080,9 @@
       <c r="T2" s="1">
         <v>0</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="17">
         <f ca="1">M2*P2*Q2*(R2*(1-S2)+S2)*(1-T2)</f>
-        <v>1.03003698102732</v>
+        <v>1.11078669673778</v>
       </c>
       <c r="V2" s="4">
         <f ca="1">U2*200/Q2</f>
@@ -7126,15 +7123,15 @@
       <c r="J3" s="1">
         <v>1.2</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="17">
         <f t="shared" si="1"/>
         <v>3.1875</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <f t="shared" si="2"/>
         <v>3.06</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <f t="shared" ref="M3:M8" si="5">K3+L3</f>
         <v>6.2475</v>
       </c>
@@ -7144,13 +7141,13 @@
       <c r="O3" s="1">
         <v>15</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="Q3" s="1">
         <f ca="1" t="shared" ref="Q3:Q8" si="6">0.95+0.1*RAND()</f>
-        <v>1.03353186528303</v>
+        <v>1.03035547163694</v>
       </c>
       <c r="R3" s="1">
         <f>R2*1.2</f>
@@ -7163,9 +7160,9 @@
       <c r="T3" s="1">
         <v>0.05</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="17">
         <f ca="1" t="shared" ref="U3:U8" si="7">M3*P3*Q3*(R3*(1-S3)+S3)*(1-T3)</f>
-        <v>4.33413853208289</v>
+        <v>4.32081825570143</v>
       </c>
       <c r="V3" s="4">
         <f ca="1" t="shared" ref="V3:V8" si="8">U3*200/Q3</f>
@@ -7206,15 +7203,15 @@
       <c r="J4" s="1">
         <v>1.6</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <f t="shared" si="1"/>
         <v>16.64</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <f t="shared" si="2"/>
         <v>24.96</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <f t="shared" si="5"/>
         <v>41.6</v>
       </c>
@@ -7224,13 +7221,13 @@
       <c r="O4" s="1">
         <v>35</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="18">
         <f t="shared" si="3"/>
         <v>0.222222222222222</v>
       </c>
       <c r="Q4" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>0.985482924968181</v>
+        <v>1.00590114183312</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" ref="R4:R8" si="9">R3*1.2</f>
@@ -7243,9 +7240,9 @@
       <c r="T4" s="1">
         <v>0.1</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="17">
         <f ca="1" t="shared" si="7"/>
-        <v>17.1510584842275</v>
+        <v>17.5064111978278</v>
       </c>
       <c r="V4" s="4">
         <f ca="1" t="shared" si="8"/>
@@ -7286,15 +7283,15 @@
       <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <f t="shared" si="1"/>
         <v>102.9</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <f t="shared" si="5"/>
         <v>228.9</v>
       </c>
@@ -7304,13 +7301,13 @@
       <c r="O5" s="1">
         <v>60</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="18">
         <f t="shared" si="3"/>
         <v>0.142857142857143</v>
       </c>
       <c r="Q5" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>1.03419569426753</v>
+        <v>1.00976296527841</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="9"/>
@@ -7323,9 +7320,9 @@
       <c r="T5" s="1">
         <v>0.15</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="17">
         <f ca="1" t="shared" si="7"/>
-        <v>70.7410638439703</v>
+        <v>69.0698160802422</v>
       </c>
       <c r="V5" s="4">
         <f ca="1" t="shared" si="8"/>
@@ -7366,15 +7363,15 @@
       <c r="J6" s="1">
         <v>2.5</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <f t="shared" si="2"/>
         <v>525</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <f t="shared" si="5"/>
         <v>1155</v>
       </c>
@@ -7384,13 +7381,13 @@
       <c r="O6" s="1">
         <v>85</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="18">
         <f t="shared" si="3"/>
         <v>0.105263157894737</v>
       </c>
       <c r="Q6" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>1.02606011946125</v>
+        <v>1.00371649220967</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="9"/>
@@ -7403,9 +7400,9 @@
       <c r="T6" s="1">
         <v>0.2</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="17">
         <f ca="1" t="shared" si="7"/>
-        <v>286.138454087644</v>
+        <v>279.907463486591</v>
       </c>
       <c r="V6" s="4">
         <f ca="1" t="shared" si="8"/>
@@ -7446,15 +7443,15 @@
       <c r="J7" s="1">
         <v>3.6</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <f t="shared" si="1"/>
         <v>29203.2</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <f t="shared" si="2"/>
         <v>6480</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <f t="shared" si="5"/>
         <v>35683.2</v>
       </c>
@@ -7464,13 +7461,13 @@
       <c r="O7" s="1">
         <v>100</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <f t="shared" si="3"/>
         <v>0.0909090909090909</v>
       </c>
       <c r="Q7" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>1.02506853043218</v>
+        <v>1.02802610918441</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="9"/>
@@ -7483,9 +7480,9 @@
       <c r="T7" s="1">
         <v>0.25</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="17">
         <f ca="1" t="shared" si="7"/>
-        <v>8209.04414596287</v>
+        <v>8232.72928878154</v>
       </c>
       <c r="V7" s="4">
         <f ca="1" t="shared" si="8"/>
@@ -7526,15 +7523,15 @@
       <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <f t="shared" si="1"/>
         <v>260100</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <f t="shared" si="5"/>
         <v>290100</v>
       </c>
@@ -7544,13 +7541,13 @@
       <c r="O8" s="1">
         <v>120</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <f t="shared" si="3"/>
         <v>0.0769230769230769</v>
       </c>
       <c r="Q8" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>0.967784740461264</v>
+        <v>0.963307802419442</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="9"/>
@@ -7563,9 +7560,9 @@
       <c r="T8" s="1">
         <v>0.3</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="17">
         <f ca="1" t="shared" si="7"/>
-        <v>55830.9537397082</v>
+        <v>55572.681718815</v>
       </c>
       <c r="V8" s="4">
         <f ca="1" t="shared" si="8"/>
@@ -7662,7 +7659,7 @@
       <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f>(1+0.3*A2)*18*B2*(F2*(1+C2/200)*(1+D2/200)+G2*E2*0.03)*(1+H2)*(1+I2)*J2</f>
         <v>1264863.6</v>
       </c>
@@ -7698,7 +7695,7 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f t="shared" ref="K3:K17" si="0">(1+0.3*A3)*18*B3*(F3*(1+C3/200)*(1+D3/200)+G3*E3*0.03)*(1+H3)*(1+I3)*J3</f>
         <v>2409264</v>
       </c>
@@ -7734,7 +7731,7 @@
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
         <v>3674127.6</v>
       </c>
@@ -7770,7 +7767,7 @@
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>5059454.4</v>
       </c>
@@ -7806,7 +7803,7 @@
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
         <v>6565244.4</v>
       </c>
@@ -7842,7 +7839,7 @@
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>8191497.6</v>
       </c>
@@ -7878,7 +7875,7 @@
       <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>9938214</v>
       </c>
@@ -7914,7 +7911,7 @@
       <c r="J9">
         <v>3</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>11805393.6</v>
       </c>
@@ -7950,7 +7947,7 @@
       <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>13793036.4</v>
       </c>
@@ -7986,7 +7983,7 @@
       <c r="J11">
         <v>3</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>15901142.4</v>
       </c>
@@ -8022,7 +8019,7 @@
       <c r="J12">
         <v>3</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f t="shared" si="0"/>
         <v>18129711.6</v>
       </c>
@@ -8058,7 +8055,7 @@
       <c r="J13">
         <v>3</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
         <v>20478744</v>
       </c>
@@ -8094,7 +8091,7 @@
       <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f t="shared" si="0"/>
         <v>22948239.6</v>
       </c>
@@ -8130,7 +8127,7 @@
       <c r="J15">
         <v>3</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <f t="shared" si="0"/>
         <v>25538198.4</v>
       </c>
@@ -8166,7 +8163,7 @@
       <c r="J16">
         <v>3</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f t="shared" si="0"/>
         <v>28248620.4</v>
       </c>
@@ -8202,7 +8199,7 @@
       <c r="J17">
         <v>3</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f t="shared" si="0"/>
         <v>31079505.6</v>
       </c>
@@ -8288,7 +8285,7 @@
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <f>A28/A27</f>
         <v>1.5</v>
       </c>
@@ -8311,7 +8308,7 @@
         <f t="shared" ref="I28:I36" si="1">G28*(1+D28/200)*(1+E28/200)+H28*F28*0.03</f>
         <v>1000</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <f>I28/I27</f>
         <v>1.9047619047619</v>
       </c>
@@ -8320,7 +8317,7 @@
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <f t="shared" ref="B29:B35" si="2">A29/A28</f>
         <v>1.33333333333333</v>
       </c>
@@ -8343,7 +8340,7 @@
         <f t="shared" si="1"/>
         <v>1525</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <f t="shared" ref="J29:J36" si="3">I29/I28</f>
         <v>1.525</v>
       </c>
@@ -8352,7 +8349,7 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
@@ -8375,7 +8372,7 @@
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <f t="shared" si="3"/>
         <v>1.37704918032787</v>
       </c>
@@ -8384,7 +8381,7 @@
       <c r="A31">
         <v>6</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
@@ -8407,7 +8404,7 @@
         <f t="shared" si="1"/>
         <v>2725</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="13">
         <f t="shared" si="3"/>
         <v>1.29761904761905</v>
       </c>
@@ -8416,7 +8413,7 @@
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <f t="shared" si="2"/>
         <v>1.16666666666667</v>
       </c>
@@ -8439,7 +8436,7 @@
         <f t="shared" si="1"/>
         <v>3400</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <f t="shared" si="3"/>
         <v>1.24770642201835</v>
       </c>
@@ -8448,7 +8445,7 @@
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <f t="shared" si="2"/>
         <v>1.14285714285714</v>
       </c>
@@ -8471,7 +8468,7 @@
         <f t="shared" si="1"/>
         <v>4125</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <f t="shared" si="3"/>
         <v>1.21323529411765</v>
       </c>
@@ -8480,7 +8477,7 @@
       <c r="A34">
         <v>9</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
@@ -8503,7 +8500,7 @@
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <f t="shared" si="3"/>
         <v>1.18787878787879</v>
       </c>
@@ -8512,7 +8509,7 @@
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <f t="shared" si="2"/>
         <v>3.33333333333333</v>
       </c>
@@ -8535,7 +8532,7 @@
         <f t="shared" si="1"/>
         <v>5725</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <f t="shared" si="3"/>
         <v>1.16836734693878</v>
       </c>
@@ -8560,7 +8557,7 @@
         <f t="shared" si="1"/>
         <v>6600</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
         <f t="shared" si="3"/>
         <v>1.1528384279476</v>
       </c>
@@ -8576,7 +8573,7 @@
   <sheetPr/>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8591,7 +8588,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B1" t="s">
@@ -8620,7 +8617,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -8632,7 +8629,7 @@
       <c r="D2">
         <v>11</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <f>1/(1+0.1*D2)</f>
         <v>0.476190476190476</v>
       </c>
@@ -8644,13 +8641,13 @@
         <f>(100-F2)/100</f>
         <v>0.978</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <f>C2/E2/G2</f>
         <v>12883.4355828221</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>75</v>
       </c>
@@ -8660,7 +8657,7 @@
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <f t="shared" ref="E3:E15" si="0">1/(1+0.1*D3)</f>
         <v>0.454545454545455</v>
       </c>
@@ -8672,17 +8669,17 @@
         <f t="shared" ref="G3:G15" si="2">(100-F3)/100</f>
         <v>0.976</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <f t="shared" ref="H3:H15" si="3">C3/E3/G3</f>
         <v>20286.8852459016</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>H3/H2</f>
         <v>1.57464871194379</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -8694,7 +8691,7 @@
       <c r="D4">
         <v>23</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <f t="shared" si="0"/>
         <v>0.303030303030303</v>
       </c>
@@ -8706,17 +8703,17 @@
         <f t="shared" si="2"/>
         <v>0.954</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <f t="shared" si="3"/>
         <v>121069.182389937</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <f t="shared" ref="I4:I15" si="4">H4/H3</f>
         <v>5.96785464709993</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -8726,7 +8723,7 @@
       <c r="D5">
         <v>24</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>0.294117647058823</v>
       </c>
@@ -8738,17 +8735,17 @@
         <f t="shared" si="2"/>
         <v>0.952</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <f t="shared" si="3"/>
         <v>160714.285714286</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <f t="shared" si="4"/>
         <v>1.32745825602968</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="13">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -8760,7 +8757,7 @@
       <c r="D6">
         <v>33</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>0.232558139534884</v>
       </c>
@@ -8772,17 +8769,17 @@
         <f t="shared" si="2"/>
         <v>0.934</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <f t="shared" si="3"/>
         <v>644539.614561028</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <f t="shared" si="4"/>
         <v>4.01046871282417</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13"/>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>79</v>
       </c>
@@ -8792,7 +8789,7 @@
       <c r="D7">
         <v>33</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
         <v>0.232558139534884</v>
       </c>
@@ -8804,17 +8801,17 @@
         <f t="shared" si="2"/>
         <v>0.934</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f t="shared" si="3"/>
         <v>736616.70235546</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f t="shared" si="4"/>
         <v>1.14285714285714</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -8824,7 +8821,7 @@
       <c r="D8">
         <v>34</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>0.227272727272727</v>
       </c>
@@ -8836,17 +8833,17 @@
         <f t="shared" si="2"/>
         <v>0.932</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f t="shared" si="3"/>
         <v>849785.407725322</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <f t="shared" si="4"/>
         <v>1.15363309711548</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>81</v>
       </c>
@@ -8856,7 +8853,7 @@
       <c r="D9">
         <v>35</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>0.222222222222222</v>
       </c>
@@ -8868,17 +8865,17 @@
         <f t="shared" si="2"/>
         <v>0.93</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f t="shared" si="3"/>
         <v>890322.580645161</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <f t="shared" si="4"/>
         <v>1.04770283479961</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13">
+      <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -8890,7 +8887,7 @@
       <c r="D10">
         <v>43</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>0.188679245283019</v>
       </c>
@@ -8902,17 +8899,17 @@
         <f t="shared" si="2"/>
         <v>0.914</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <f t="shared" si="3"/>
         <v>1159737.41794311</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <f t="shared" si="4"/>
         <v>1.30260362160277</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -8922,7 +8919,7 @@
       <c r="D11">
         <v>44</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>0.185185185185185</v>
       </c>
@@ -8934,17 +8931,17 @@
         <f t="shared" si="2"/>
         <v>0.912</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="3"/>
         <v>1781052.63157895</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <f t="shared" si="4"/>
         <v>1.53573783515392</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -8956,7 +8953,7 @@
       <c r="D12">
         <v>67</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>0.12987012987013</v>
       </c>
@@ -8968,17 +8965,17 @@
         <f t="shared" si="2"/>
         <v>0.866</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <f t="shared" si="3"/>
         <v>8535796.76674365</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <f t="shared" si="4"/>
         <v>4.79255728629224</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>85</v>
       </c>
@@ -8988,7 +8985,7 @@
       <c r="D13">
         <v>68</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>0.128205128205128</v>
       </c>
@@ -9000,17 +8997,17 @@
         <f t="shared" si="2"/>
         <v>0.864</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f t="shared" si="3"/>
         <v>9172222.22222222</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <f t="shared" si="4"/>
         <v>1.07455958393458</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="13"/>
+      <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -9020,7 +9017,7 @@
       <c r="D14">
         <v>69</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>0.126582278481013</v>
       </c>
@@ -9032,17 +9029,17 @@
         <f t="shared" si="2"/>
         <v>0.862</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <f t="shared" si="3"/>
         <v>13197215.7772622</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f t="shared" si="4"/>
         <v>1.43882425191229</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" t="s">
@@ -9054,7 +9051,7 @@
       <c r="D15">
         <v>79</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <f t="shared" si="0"/>
         <v>0.112359550561798</v>
       </c>
@@ -9066,11 +9063,11 @@
         <f t="shared" si="2"/>
         <v>0.842</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f t="shared" si="3"/>
         <v>334014251.781473</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <f t="shared" si="4"/>
         <v>25.3094484032726</v>
       </c>
@@ -9147,7 +9144,7 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <f>(1+0.3*B24)*18*C24*(G24*(1+D24/200)*(1+E24/200)+H24*F24*0.03)*(1+0.5*I24)*(1+J24)*K24</f>
         <v>761.8455</v>
       </c>
@@ -9183,7 +9180,7 @@
       <c r="K25">
         <v>1.7</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="13">
         <f>(1+0.3*B25)*18*C25*(G25*(1+D25/200)*(1+E25/200)+H25*F25*0.03)*(1+0.5*I25)*(1+J25)*K25</f>
         <v>36391.24125</v>
       </c>
@@ -9219,7 +9216,7 @@
       <c r="K26">
         <v>1.7</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <f>(1+0.3*B26)*18*C26*(G26*(1+D26/200)*(1+E26/200)+H26*F26*0.03)*(1+0.5*I26)*(1+J26)*K26</f>
         <v>105496.56</v>
       </c>
@@ -9255,7 +9252,7 @@
       <c r="K27">
         <v>3</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="13">
         <f t="shared" ref="L27:L33" si="5">(1+0.3*B27)*18*C27*(G27*(1+D27/200)*(1+E27/200)+H27*F27*0.03)*(1+0.5*I27)*(1+J27)*K27</f>
         <v>10846426.5</v>
       </c>
@@ -9291,7 +9288,7 @@
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="13">
         <f t="shared" si="5"/>
         <v>62432370</v>
       </c>
@@ -9327,7 +9324,7 @@
       <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="13">
         <f t="shared" si="5"/>
         <v>1760430672</v>
       </c>
@@ -9363,13 +9360,13 @@
       <c r="K30">
         <v>3</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="13">
         <f t="shared" si="5"/>
         <v>13440913200</v>
       </c>
     </row>
     <row r="31" spans="12:12">
-      <c r="L31" s="14"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32">
@@ -9402,7 +9399,7 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <f t="shared" si="5"/>
         <v>761.8455</v>
       </c>
@@ -9438,7 +9435,7 @@
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <f t="shared" si="5"/>
         <v>1295.13735</v>
       </c>
@@ -9474,7 +9471,7 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="13">
         <f t="shared" ref="L34:L40" si="6">(1+0.3*B34)*18*C34*(G34*(1+D34/200)*(1+E34/200)+H34*F34*0.03)*(1+0.5*I34)*(1+J34)*K34</f>
         <v>1126.71</v>
       </c>
@@ -9510,7 +9507,7 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="13">
         <f t="shared" si="6"/>
         <v>19129.5</v>
       </c>
@@ -9546,7 +9543,7 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="13">
         <f t="shared" si="6"/>
         <v>761.8455</v>
       </c>
@@ -9582,7 +9579,7 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="13">
         <f t="shared" si="6"/>
         <v>761.8455</v>
       </c>
@@ -9618,7 +9615,7 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="13">
         <f t="shared" si="6"/>
         <v>761.8455</v>
       </c>
@@ -9654,7 +9651,7 @@
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="13">
         <f t="shared" si="6"/>
         <v>761.8455</v>
       </c>
@@ -9690,7 +9687,7 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="13">
         <f t="shared" si="6"/>
         <v>761.8455</v>
       </c>
@@ -9713,10 +9710,10 @@
   <sheetPr/>
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28:D33"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
